--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.949039</v>
+        <v>14.27711966666667</v>
       </c>
       <c r="H2">
-        <v>35.847117</v>
+        <v>42.831359</v>
       </c>
       <c r="I2">
-        <v>0.3580329233804654</v>
+        <v>0.3998945032785361</v>
       </c>
       <c r="J2">
-        <v>0.3580329233804654</v>
+        <v>0.399894503278536</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.456609</v>
+        <v>1.017468666666667</v>
       </c>
       <c r="N2">
-        <v>4.369827000000001</v>
+        <v>3.052406</v>
       </c>
       <c r="O2">
-        <v>0.3001553107647443</v>
+        <v>0.2305245503179033</v>
       </c>
       <c r="P2">
-        <v>0.3001553107647443</v>
+        <v>0.2305245503179033</v>
       </c>
       <c r="Q2">
-        <v>17.405077748751</v>
+        <v>14.52652191108378</v>
       </c>
       <c r="R2">
-        <v>156.645699738759</v>
+        <v>130.738697199754</v>
       </c>
       <c r="S2">
-        <v>0.1074654833812735</v>
+        <v>0.09218550054288585</v>
       </c>
       <c r="T2">
-        <v>0.1074654833812735</v>
+        <v>0.09218550054288584</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.949039</v>
+        <v>14.27711966666667</v>
       </c>
       <c r="H3">
-        <v>35.847117</v>
+        <v>42.831359</v>
       </c>
       <c r="I3">
-        <v>0.3580329233804654</v>
+        <v>0.3998945032785361</v>
       </c>
       <c r="J3">
-        <v>0.3580329233804654</v>
+        <v>0.399894503278536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.019973</v>
       </c>
       <c r="O3">
-        <v>0.4821889235832709</v>
+        <v>0.5301641128568162</v>
       </c>
       <c r="P3">
-        <v>0.482188923583271</v>
+        <v>0.5301641128568162</v>
       </c>
       <c r="Q3">
-        <v>27.960643718649</v>
+        <v>33.408331525923</v>
       </c>
       <c r="R3">
-        <v>251.645793467841</v>
+        <v>300.674983733307</v>
       </c>
       <c r="S3">
-        <v>0.1726395099321983</v>
+        <v>0.2120097145669823</v>
       </c>
       <c r="T3">
-        <v>0.1726395099321983</v>
+        <v>0.2120097145669822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.949039</v>
+        <v>14.27711966666667</v>
       </c>
       <c r="H4">
-        <v>35.847117</v>
+        <v>42.831359</v>
       </c>
       <c r="I4">
-        <v>0.3580329233804654</v>
+        <v>0.3998945032785361</v>
       </c>
       <c r="J4">
-        <v>0.3580329233804654</v>
+        <v>0.399894503278536</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.168753</v>
       </c>
       <c r="O4">
-        <v>0.2176557656519847</v>
+        <v>0.2393113368252805</v>
       </c>
       <c r="P4">
-        <v>0.2176557656519848</v>
+        <v>0.2393113368252805</v>
       </c>
       <c r="Q4">
-        <v>12.621184392789</v>
+        <v>15.08022192503633</v>
       </c>
       <c r="R4">
-        <v>113.590659535101</v>
+        <v>135.721997325327</v>
       </c>
       <c r="S4">
-        <v>0.07792793006699358</v>
+        <v>0.09569928816866799</v>
       </c>
       <c r="T4">
-        <v>0.0779279300669936</v>
+        <v>0.09569928816866798</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>39.910043</v>
       </c>
       <c r="I5">
-        <v>0.3986125123403949</v>
+        <v>0.3726196691846742</v>
       </c>
       <c r="J5">
-        <v>0.3986125123403949</v>
+        <v>0.3726196691846742</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.456609</v>
+        <v>1.017468666666667</v>
       </c>
       <c r="N5">
-        <v>4.369827000000001</v>
+        <v>3.052406</v>
       </c>
       <c r="O5">
-        <v>0.3001553107647443</v>
+        <v>0.2305245503179033</v>
       </c>
       <c r="P5">
-        <v>0.3001553107647443</v>
+        <v>0.2305245503179033</v>
       </c>
       <c r="Q5">
-        <v>19.37777594139567</v>
+        <v>13.53573941260644</v>
       </c>
       <c r="R5">
-        <v>174.399983472561</v>
+        <v>121.821654713458</v>
       </c>
       <c r="S5">
-        <v>0.1196456625162467</v>
+        <v>0.08589798167840292</v>
       </c>
       <c r="T5">
-        <v>0.1196456625162467</v>
+        <v>0.08589798167840292</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>39.910043</v>
       </c>
       <c r="I6">
-        <v>0.3986125123403949</v>
+        <v>0.3726196691846742</v>
       </c>
       <c r="J6">
-        <v>0.3986125123403949</v>
+        <v>0.3726196691846742</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.019973</v>
       </c>
       <c r="O6">
-        <v>0.4821889235832709</v>
+        <v>0.5301641128568162</v>
       </c>
       <c r="P6">
-        <v>0.482188923583271</v>
+        <v>0.5301641128568162</v>
       </c>
       <c r="Q6">
         <v>31.129713809871</v>
@@ -818,10 +818,10 @@
         <v>280.167424288839</v>
       </c>
       <c r="S6">
-        <v>0.1922065382522383</v>
+        <v>0.1975495763462931</v>
       </c>
       <c r="T6">
-        <v>0.1922065382522384</v>
+        <v>0.1975495763462931</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>39.910043</v>
       </c>
       <c r="I7">
-        <v>0.3986125123403949</v>
+        <v>0.3726196691846742</v>
       </c>
       <c r="J7">
-        <v>0.3986125123403949</v>
+        <v>0.3726196691846742</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>3.168753</v>
       </c>
       <c r="O7">
-        <v>0.2176557656519847</v>
+        <v>0.2393113368252805</v>
       </c>
       <c r="P7">
-        <v>0.2176557656519848</v>
+        <v>0.2393113368252805</v>
       </c>
       <c r="Q7">
         <v>14.05167427626433</v>
@@ -880,10 +880,10 @@
         <v>126.465068486379</v>
       </c>
       <c r="S7">
-        <v>0.08676031157190987</v>
+        <v>0.08917211115997815</v>
       </c>
       <c r="T7">
-        <v>0.08676031157190989</v>
+        <v>0.08917211115997815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.121747999999998</v>
+        <v>8.121748</v>
       </c>
       <c r="H8">
         <v>24.365244</v>
       </c>
       <c r="I8">
-        <v>0.2433545642791397</v>
+        <v>0.2274858275367899</v>
       </c>
       <c r="J8">
-        <v>0.2433545642791398</v>
+        <v>0.2274858275367898</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.456609</v>
+        <v>1.017468666666667</v>
       </c>
       <c r="N8">
-        <v>4.369827000000001</v>
+        <v>3.052406</v>
       </c>
       <c r="O8">
-        <v>0.3001553107647443</v>
+        <v>0.2305245503179033</v>
       </c>
       <c r="P8">
-        <v>0.3001553107647443</v>
+        <v>0.2305245503179033</v>
       </c>
       <c r="Q8">
-        <v>11.830211232532</v>
+        <v>8.263624108562666</v>
       </c>
       <c r="R8">
-        <v>106.471901092788</v>
+        <v>74.372616977064</v>
       </c>
       <c r="S8">
-        <v>0.07304416486722413</v>
+        <v>0.05244106809661459</v>
       </c>
       <c r="T8">
-        <v>0.07304416486722415</v>
+        <v>0.05244106809661459</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.121747999999998</v>
+        <v>8.121748</v>
       </c>
       <c r="H9">
         <v>24.365244</v>
       </c>
       <c r="I9">
-        <v>0.2433545642791397</v>
+        <v>0.2274858275367899</v>
       </c>
       <c r="J9">
-        <v>0.2433545642791398</v>
+        <v>0.2274858275367898</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>7.019973</v>
       </c>
       <c r="O9">
-        <v>0.4821889235832709</v>
+        <v>0.5301641128568162</v>
       </c>
       <c r="P9">
-        <v>0.482188923583271</v>
+        <v>0.5301641128568162</v>
       </c>
       <c r="Q9">
         <v>19.004817224268</v>
@@ -1004,10 +1004,10 @@
         <v>171.043355018412</v>
       </c>
       <c r="S9">
-        <v>0.1173428753988343</v>
+        <v>0.1206048219435409</v>
       </c>
       <c r="T9">
-        <v>0.1173428753988343</v>
+        <v>0.1206048219435409</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.121747999999998</v>
+        <v>8.121748</v>
       </c>
       <c r="H10">
         <v>24.365244</v>
       </c>
       <c r="I10">
-        <v>0.2433545642791397</v>
+        <v>0.2274858275367899</v>
       </c>
       <c r="J10">
-        <v>0.2433545642791398</v>
+        <v>0.2274858275367898</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>3.168753</v>
       </c>
       <c r="O10">
-        <v>0.2176557656519847</v>
+        <v>0.2393113368252805</v>
       </c>
       <c r="P10">
-        <v>0.2176557656519848</v>
+        <v>0.2393113368252805</v>
       </c>
       <c r="Q10">
-        <v>8.578604446747997</v>
+        <v>8.578604446748001</v>
       </c>
       <c r="R10">
-        <v>77.20744002073198</v>
+        <v>77.20744002073201</v>
       </c>
       <c r="S10">
-        <v>0.05296752401308129</v>
+        <v>0.05443993749663439</v>
       </c>
       <c r="T10">
-        <v>0.05296752401308131</v>
+        <v>0.05443993749663438</v>
       </c>
     </row>
   </sheetData>
